--- a/VT_Model_DMD_V01.xlsx
+++ b/VT_Model_DMD_V01.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr showObjects="placeholders" codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda2\Veda_models\MSc_SELECT_IND_8760\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aghedupl.sharepoint.com/sites/IPoY45/Shared Documents/CFE/Models/CFE_NL_IND_8760/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{103FB226-9C5E-4924-B892-41011D882CCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{103FB226-9C5E-4924-B892-41011D882CCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FAD4C506-090E-4D83-872C-A01B7DBC52B6}"/>
   <bookViews>
-    <workbookView xWindow="4770" yWindow="5340" windowWidth="27885" windowHeight="15435" tabRatio="901" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="901" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SEC_Comm" sheetId="112" r:id="rId1"/>
     <sheet name="SEC_Processes" sheetId="140" r:id="rId2"/>
-    <sheet name="FINAL_DEMAD_PRC" sheetId="139" r:id="rId3"/>
-    <sheet name="DEMAND" sheetId="128" r:id="rId4"/>
+    <sheet name="DEMAND" sheetId="128" r:id="rId3"/>
+    <sheet name="FINAL_DEMAD_PRC" sheetId="139" r:id="rId4"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId5"/>
@@ -862,15 +862,45 @@
     <t>Electricity Indicator (for CHPs)</t>
   </si>
   <si>
+    <t>NRG</t>
+  </si>
+  <si>
+    <t>ELC_GRID_RES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Electricity grid RES </t>
+  </si>
+  <si>
     <t>PJ</t>
   </si>
   <si>
     <t>DAYNITE</t>
   </si>
   <si>
+    <t>ELC_GRID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Electricity grid non-RES </t>
+  </si>
+  <si>
+    <t>DEM</t>
+  </si>
+  <si>
+    <t>ELC_FIN</t>
+  </si>
+  <si>
     <t>Electricity - Final Energy</t>
   </si>
   <si>
+    <t>ELC_IND_FIN</t>
+  </si>
+  <si>
+    <t>Electricity - Industry Final Energy</t>
+  </si>
+  <si>
+    <t>FX</t>
+  </si>
+  <si>
     <t>Define Processes</t>
   </si>
   <si>
@@ -928,12 +958,27 @@
     <t>Vintage Tracking</t>
   </si>
   <si>
+    <t>DMD</t>
+  </si>
+  <si>
+    <t>NL</t>
+  </si>
+  <si>
+    <t>ELC_FIN_DEM</t>
+  </si>
+  <si>
     <t>Electricity - Final Energy Demand</t>
   </si>
   <si>
     <t>PJa</t>
   </si>
   <si>
+    <t>ELC_IND_FIN_DEM</t>
+  </si>
+  <si>
+    <t>Electricity - Industry Final Energy Demand</t>
+  </si>
+  <si>
     <t>Final Energy Consumption Technologies</t>
   </si>
   <si>
@@ -970,6 +1015,9 @@
     <t>Capacity to Activity Factor</t>
   </si>
   <si>
+    <t>ELC_IND_RES_SUM</t>
+  </si>
+  <si>
     <t>Demand</t>
   </si>
   <si>
@@ -988,64 +1036,16 @@
     <t>Visualisation Platform | ENTSOs TYNDP 2024 Scenarios</t>
   </si>
   <si>
-    <t>NL</t>
+    <t>Supportive calculations below:</t>
   </si>
   <si>
     <t>TWh</t>
   </si>
   <si>
-    <t>ELC_FIN</t>
-  </si>
-  <si>
-    <t>ELC_GRID_RES</t>
-  </si>
-  <si>
-    <t>ELC_GRID</t>
-  </si>
-  <si>
-    <t>NRG</t>
-  </si>
-  <si>
-    <t>DEM</t>
-  </si>
-  <si>
-    <t>ELC_FIN_DEM</t>
-  </si>
-  <si>
-    <t>DMD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Electricity grid RES </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Electricity grid non-RES </t>
-  </si>
-  <si>
-    <t>Supportive calculations below:</t>
-  </si>
-  <si>
     <t>Legend:</t>
   </si>
   <si>
     <t xml:space="preserve"> ENTSO data points</t>
-  </si>
-  <si>
-    <t>FX</t>
-  </si>
-  <si>
-    <t>ELC_IND_FIN</t>
-  </si>
-  <si>
-    <t>Electricity - Industry Final Energy</t>
-  </si>
-  <si>
-    <t>ELC_IND_FIN_DEM</t>
-  </si>
-  <si>
-    <t>Electricity - Industry Final Energy Demand</t>
-  </si>
-  <si>
-    <t>ELC_IND_RES_SUM</t>
   </si>
 </sst>
 </file>
@@ -5207,7 +5207,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5518,6 +5518,7 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -5525,7 +5526,6 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -6336,6 +6336,10 @@
 </externalLink>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -6691,22 +6695,22 @@
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="20.5703125" customWidth="1"/>
+    <col min="3" max="3" width="20.5546875" customWidth="1"/>
     <col min="4" max="4" width="36" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" customWidth="1"/>
-    <col min="11" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" customWidth="1"/>
+    <col min="10" max="10" width="10.44140625" customWidth="1"/>
+    <col min="11" max="12" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="18">
+    <row r="2" spans="2:10" ht="17.399999999999999">
       <c r="B2" s="17" t="s">
         <v>0</v>
       </c>
@@ -6728,7 +6732,7 @@
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
     </row>
-    <row r="4" spans="2:10" ht="17.649999999999999" customHeight="1">
+    <row r="4" spans="2:10" ht="17.7" customHeight="1">
       <c r="B4" s="11" t="s">
         <v>1</v>
       </c>
@@ -6794,20 +6798,20 @@
     </row>
     <row r="7" spans="2:10" ht="16.5" customHeight="1">
       <c r="B7" s="27" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="E7" s="27" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F7" s="27"/>
       <c r="G7" s="27" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H7" s="27"/>
       <c r="I7" s="27"/>
@@ -6815,62 +6819,62 @@
     </row>
     <row r="8" spans="2:10" ht="15.75" customHeight="1">
       <c r="B8" s="28" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="E8" s="28" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F8" s="28"/>
       <c r="G8" s="28" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H8" s="28"/>
       <c r="I8" s="28"/>
     </row>
     <row r="9" spans="2:10" ht="15.75" customHeight="1">
       <c r="B9" s="27" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="D9" s="29" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="E9" s="27" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F9" s="27"/>
       <c r="G9" s="27" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H9" s="27"/>
       <c r="I9" s="27"/>
     </row>
     <row r="10" spans="2:10">
       <c r="B10" s="28" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>74</v>
+        <v>27</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>75</v>
+        <v>28</v>
       </c>
       <c r="E10" s="28" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F10" s="28" t="s">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="G10" s="28" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H10" s="28"/>
       <c r="I10" s="28"/>
@@ -6887,7 +6891,7 @@
     <row r="13" spans="2:10">
       <c r="B13" s="1"/>
     </row>
-    <row r="22" ht="13.9" customHeight="1"/>
+    <row r="22" ht="13.95" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6905,21 +6909,21 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="26.42578125" customWidth="1"/>
-    <col min="5" max="5" width="45.7109375" customWidth="1"/>
+    <col min="4" max="4" width="26.44140625" customWidth="1"/>
+    <col min="5" max="5" width="45.6640625" customWidth="1"/>
     <col min="6" max="8" width="11" customWidth="1"/>
-    <col min="9" max="9" width="14.28515625" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" customWidth="1"/>
     <col min="10" max="10" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:10" ht="15.75" customHeight="1">
       <c r="B2" s="17" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C2" s="19"/>
       <c r="D2" s="19"/>
@@ -6943,7 +6947,7 @@
     </row>
     <row r="4" spans="2:10" ht="15.75" customHeight="1">
       <c r="B4" s="11" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="12"/>
@@ -6956,108 +6960,108 @@
     </row>
     <row r="5" spans="2:10" ht="15.75" customHeight="1">
       <c r="B5" s="15" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="I5" s="15" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="J5" s="15" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="6" spans="2:10" ht="38.25">
+    <row r="6" spans="2:10" ht="39.6">
       <c r="B6" s="32" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="C6" s="32" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="E6" s="32" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="F6" s="32" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="G6" s="32" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="H6" s="32" t="s">
         <v>14</v>
       </c>
       <c r="I6" s="33" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="J6" s="33" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="15.75" customHeight="1">
       <c r="B7" s="31" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="D7" s="31" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="E7" s="31" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="F7" s="31" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G7" s="31" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="H7" s="31" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I7" s="27"/>
       <c r="J7" s="13"/>
     </row>
     <row r="8" spans="2:10">
       <c r="B8" s="31" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="D8" s="31" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="E8" s="31" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="F8" s="31" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G8" s="31" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="H8" s="31" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="I8" s="27"/>
     </row>
@@ -7068,188 +7072,32 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="B2:G17"/>
-  <sheetViews>
-    <sheetView zoomScale="133" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
-  <cols>
-    <col min="1" max="1" width="2.7109375" customWidth="1"/>
-    <col min="2" max="2" width="31.28515625" customWidth="1"/>
-    <col min="3" max="3" width="47.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="19.7109375" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:7" ht="18">
-      <c r="B2" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="9"/>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="2:7">
-      <c r="B3" s="4"/>
-      <c r="C3" s="2"/>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="2:7" ht="15.75" customHeight="1">
-      <c r="E4" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B5" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="G5" s="15" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" ht="31.9" customHeight="1">
-      <c r="B6" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="E6" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="F6" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="G6" s="20" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7" ht="15.75" customHeight="1">
-      <c r="B7" s="27" t="str">
-        <f>SEC_Processes!D7</f>
-        <v>ELC_FIN_DEM</v>
-      </c>
-      <c r="C7" s="27" t="str">
-        <f>SEC_Processes!E7</f>
-        <v>Electricity - Final Energy Demand</v>
-      </c>
-      <c r="D7" s="30" t="str">
-        <f>SEC_Comm!C7</f>
-        <v>ELC_GRID_RES</v>
-      </c>
-      <c r="E7" s="28"/>
-      <c r="F7" s="34">
-        <v>1</v>
-      </c>
-      <c r="G7" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7">
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="29" t="str">
-        <f>SEC_Comm!C8</f>
-        <v>ELC_GRID</v>
-      </c>
-      <c r="E8" s="27"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-    </row>
-    <row r="9" spans="2:7">
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="E9" s="28" t="str">
-        <f>SEC_Comm!C9</f>
-        <v>ELC_FIN</v>
-      </c>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34"/>
-    </row>
-    <row r="10" spans="2:7">
-      <c r="B10" t="str">
-        <f>SEC_Processes!D8</f>
-        <v>ELC_IND_FIN_DEM</v>
-      </c>
-      <c r="D10" t="s">
-        <v>78</v>
-      </c>
-      <c r="F10" s="34">
-        <v>1</v>
-      </c>
-      <c r="G10" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7">
-      <c r="D11" t="str">
-        <f>SEC_Comm!C8</f>
-        <v>ELC_GRID</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7">
-      <c r="E12" t="str">
-        <f>SEC_Comm!C10</f>
-        <v>ELC_IND_FIN</v>
-      </c>
-    </row>
-    <row r="17" spans="4:4">
-      <c r="D17" s="14"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView topLeftCell="A2" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="4" max="5" width="8.5703125" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" customWidth="1"/>
-    <col min="8" max="8" width="9.28515625" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.7109375" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
+    <col min="4" max="5" width="8.5546875" customWidth="1"/>
+    <col min="6" max="6" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" customWidth="1"/>
+    <col min="9" max="9" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:13">
       <c r="C1" s="23"/>
     </row>
-    <row r="3" spans="2:13" ht="18">
+    <row r="3" spans="2:13" ht="17.399999999999999">
       <c r="B3" s="16" t="s">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="40"/>
@@ -7261,7 +7109,7 @@
     </row>
     <row r="5" spans="2:13">
       <c r="B5" s="7" t="s">
-        <v>54</v>
+        <v>70</v>
       </c>
       <c r="C5" s="8"/>
     </row>
@@ -7293,10 +7141,10 @@
     </row>
     <row r="7" spans="2:13" ht="36.75" customHeight="1">
       <c r="B7" s="32" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="C7" s="41" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="D7" s="41"/>
       <c r="E7" s="41"/>
@@ -7307,7 +7155,7 @@
     </row>
     <row r="8" spans="2:13" ht="15.75" customHeight="1">
       <c r="B8" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="C8" s="40">
         <f>0.8*C13*3.6</f>
@@ -7338,10 +7186,10 @@
         <v>865.52613698630546</v>
       </c>
       <c r="L8" t="s">
-        <v>57</v>
+        <v>73</v>
       </c>
       <c r="M8" s="22" t="s">
-        <v>58</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="2:13" ht="15.75" customHeight="1">
@@ -7388,7 +7236,7 @@
     </row>
     <row r="11" spans="2:13" ht="15.75" customHeight="1">
       <c r="C11" s="39" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D11" s="25"/>
       <c r="E11" s="25"/>
@@ -7423,7 +7271,7 @@
     </row>
     <row r="13" spans="2:13">
       <c r="B13" s="1" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="C13" s="37">
         <v>109.39</v>
@@ -7453,13 +7301,13 @@
     </row>
     <row r="15" spans="2:13">
       <c r="C15" s="36" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="2:13" ht="13.5" customHeight="1">
       <c r="C16" s="26"/>
       <c r="D16" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="3:12" ht="26.25" customHeight="1"/>
@@ -7484,6 +7332,162 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
   <drawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="B2:G17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="133" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2"/>
+  <cols>
+    <col min="1" max="1" width="2.6640625" customWidth="1"/>
+    <col min="2" max="2" width="31.33203125" customWidth="1"/>
+    <col min="3" max="3" width="47.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="5" max="5" width="19.6640625" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" customWidth="1"/>
+    <col min="7" max="7" width="16.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" ht="17.399999999999999">
+      <c r="B2" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="9"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="2:7">
+      <c r="B3" s="4"/>
+      <c r="C3" s="2"/>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="2:7" ht="15.75" customHeight="1">
+      <c r="E4" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+    </row>
+    <row r="5" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B5" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" ht="31.95" customHeight="1">
+      <c r="B6" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B7" s="27" t="str">
+        <f>SEC_Processes!D7</f>
+        <v>ELC_FIN_DEM</v>
+      </c>
+      <c r="C7" s="27" t="str">
+        <f>SEC_Processes!E7</f>
+        <v>Electricity - Final Energy Demand</v>
+      </c>
+      <c r="D7" s="30" t="str">
+        <f>SEC_Comm!C7</f>
+        <v>ELC_GRID_RES</v>
+      </c>
+      <c r="E7" s="28"/>
+      <c r="F7" s="34">
+        <v>1</v>
+      </c>
+      <c r="G7" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="29" t="str">
+        <f>SEC_Comm!C8</f>
+        <v>ELC_GRID</v>
+      </c>
+      <c r="E8" s="27"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9" s="27"/>
+      <c r="C9" s="27"/>
+      <c r="E9" s="28" t="str">
+        <f>SEC_Comm!C9</f>
+        <v>ELC_FIN</v>
+      </c>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10" t="str">
+        <f>SEC_Processes!D8</f>
+        <v>ELC_IND_FIN_DEM</v>
+      </c>
+      <c r="D10" t="s">
+        <v>68</v>
+      </c>
+      <c r="F10" s="34">
+        <v>1</v>
+      </c>
+      <c r="G10" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="D11" t="str">
+        <f>SEC_Comm!C8</f>
+        <v>ELC_GRID</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="E12" t="str">
+        <f>SEC_Comm!C10</f>
+        <v>ELC_IND_FIN</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4">
+      <c r="D17" s="14"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7717,21 +7721,37 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59E37678-EE5E-4C84-8E2A-2E68C4456BA9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59E37678-EE5E-4C84-8E2A-2E68C4456BA9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="45d80b71-d53a-4925-9636-d69011c62a0b"/>
+    <ds:schemaRef ds:uri="853a583b-5a39-49db-b57b-0c8a2ee0f312"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CA861A5-7E6A-41A7-8E0B-DCD15A12B5CB}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="45d80b71-d53a-4925-9636-d69011c62a0b"/>
+    <ds:schemaRef ds:uri="853a583b-5a39-49db-b57b-0c8a2ee0f312"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="95645557-b925-4e14-b9c3-bb0dccab904e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>